--- a/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Bataille Navale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Programmation\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB4FFE2-5FE2-444F-A740-38AA41174B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="8640" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -59,21 +60,12 @@
     <t>1h30</t>
   </si>
   <si>
-    <t>Continuité sur le Use case et le scénario</t>
-  </si>
-  <si>
     <t>25 min</t>
   </si>
   <si>
     <t>Installation de GitHub et Git et explication dessus</t>
   </si>
   <si>
-    <t>Commencement des maquettes de l'use case</t>
-  </si>
-  <si>
-    <t>Affichage aide</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -86,13 +78,34 @@
     <t>Ajout du retour au menu, ecriture des regles</t>
   </si>
   <si>
-    <t>Continuité sur retour au menu, ecriture des regles + debut de la grille</t>
+    <t>Changement du programme (Fonction pour chaque menu du jeu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecriture des commentaires </t>
+  </si>
+  <si>
+    <t>Finalisation avant le rendu (mise au propre du programme)</t>
+  </si>
+  <si>
+    <t>Continuité du retour au menu, ecriture des regles + debut de la grille</t>
+  </si>
+  <si>
+    <t>Affichage menu aide</t>
+  </si>
+  <si>
+    <t>Commencement des maquettes et verification des Use Case</t>
+  </si>
+  <si>
+    <t>Finalisation des Use Case et des scénarios</t>
+  </si>
+  <si>
+    <t>Continuité sur les Use case et les scénarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -626,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -639,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -658,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -674,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -690,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -703,10 +716,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -719,10 +732,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -744,17 +757,50 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7">
+        <v>43908</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7">
+        <v>43879</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7">
+        <v>43879</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>

--- a/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Programmation\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB4FFE2-5FE2-444F-A740-38AA41174B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D09FF5-A2CF-417F-9655-4CB0BCCB88A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Continuité sur les Use case et les scénarios</t>
+  </si>
+  <si>
+    <t>Commencement du sprint 4</t>
+  </si>
+  <si>
+    <t>Continuité sur le sprint 4 (identification)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,12 +811,34 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7">
+        <v>43880</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7">
+        <v>43913</v>
+      </c>
+      <c r="B20" s="8">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>

--- a/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Programmation\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D09FF5-A2CF-417F-9655-4CB0BCCB88A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F251968-9BFF-4CD4-8084-88E49F36380C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Continuité sur le sprint 4 (identification)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation avant le rendu  </t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +846,18 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7">
+        <v>43915</v>
+      </c>
+      <c r="B21" s="8">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>

--- a/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Programmation\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F251968-9BFF-4CD4-8084-88E49F36380C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271FBC58-B990-487B-BAB4-A2FC1BA25C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t xml:space="preserve">Finalisation avant le rendu  </t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>Appel de M. Favre par rapport au mode Agile sur GitHub (Project, Issues)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuité sur le sprint 5 </t>
   </si>
 </sst>
 </file>
@@ -537,13 +546,13 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="82.140625" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" customWidth="1"/>
@@ -862,12 +871,34 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7">
+        <v>43916</v>
+      </c>
+      <c r="B22" s="8">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7">
+        <v>43922</v>
+      </c>
+      <c r="B23" s="8">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>

--- a/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de travail Bataille Navale Kevin Gomes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Programmation\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271FBC58-B990-487B-BAB4-A2FC1BA25C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08348265-814A-4E20-AF8B-201E785D7E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">Continuité sur le sprint 5 </t>
+  </si>
+  <si>
+    <t>Finalisation avant rendu final</t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +906,18 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7">
+        <v>43929</v>
+      </c>
+      <c r="B24" s="8">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
